--- a/public/daily Reporsts In Month Of January.xlsx
+++ b/public/daily Reporsts In Month Of January.xlsx
@@ -360,7 +360,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -376,38 +376,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>1300.75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>17</v>
-      </c>
-      <c r="B3">
-        <v>990.0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>25</v>
-      </c>
-      <c r="B4">
-        <v>1990.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>31</v>
-      </c>
-      <c r="B5">
-        <v>2000.0</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
